--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2240,21 +2240,9 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2352,7 +2340,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2402,7 +2394,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2458,7 +2450,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #867 +RX, BROWN DEER</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2513,7 +2505,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>PICK #867 +RX, BROWN DEER</t>
+          <t>9200 N GREEN BAY RD.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2564,7 +2556,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>9200 N GREEN BAY RD.</t>
+          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2599,7 +2591,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2658,7 +2650,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2716,11 +2708,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>4:30 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2783,9 +2771,21 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2848,17 +2848,18 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2927,18 +2928,18 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>Driver 1/2,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -2995,18 +2996,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3064,12 +3064,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3131,12 +3131,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3195,12 +3195,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3270,12 +3270,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3342,12 +3342,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3418,12 +3418,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3489,12 +3489,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3564,12 +3564,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3627,12 +3627,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3690,35 +3690,24 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3757,12 +3746,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3801,7 +3790,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3812,12 +3801,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3827,7 +3816,11 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3853,42 +3846,18 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3919,7 +3888,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3944,13 +3913,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3977,7 +3950,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3985,7 +3958,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>5213 ELEVATOR RD</t>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4012,7 +3985,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4020,7 +3993,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4047,17 +4020,13 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4082,14 +4051,26 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4113,26 +4094,22 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4154,21 +4131,17 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4192,18 +4165,30 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4229,28 +4214,24 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4276,24 +4257,24 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4319,26 +4300,18 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -4362,12 +4335,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4397,12 +4370,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4417,41 +4390,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -3701,7 +3701,7 @@
       <c r="O56" t="inlineStr">
         <is>
           <t>@ Store,
-Until 10:00</t>
+Until 9:00</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -3790,7 +3790,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3846,9 +3846,21 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -2011,7 +2011,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3700,8 +3700,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3735,7 +3734,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3790,12 +3789,13 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 9:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -1045,7 +1045,7 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>Driver,
-Silver Van, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>Driver,
-Red Camry</t>
+Silver Van</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3862,9 +3862,21 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
@@ -3925,11 +3937,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3962,7 +3970,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3997,7 +4005,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4032,7 +4040,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4063,7 +4071,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4106,7 +4114,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4143,7 +4151,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
@@ -4177,21 +4189,9 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
@@ -4226,15 +4226,19 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
@@ -4269,12 +4273,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4312,12 +4316,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4347,12 +4351,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4382,12 +4386,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4402,6 +4406,41 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -3648,7 +3648,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3704,9 +3704,21 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3816,11 +3828,7 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3881,7 +3889,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3912,7 +3920,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3943,7 +3951,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>5213 ELEVATOR RD</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3978,7 +3986,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4013,7 +4021,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4046,7 +4054,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4076,21 +4088,9 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4121,15 +4121,19 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4160,12 +4164,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4195,12 +4199,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4242,12 +4246,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4285,12 +4289,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4326,8 +4330,16 @@
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -1200,14 +1200,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1276,10 +1272,16 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1358,16 +1360,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1435,10 +1431,15 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1511,15 +1512,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1597,7 +1593,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1662,10 +1658,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Some training w/ Nate</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1721,14 +1721,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Some training w/ Nate</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1803,10 +1799,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1870,13 +1871,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2027,12 +2027,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2102,7 +2103,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -1756,7 +1756,8 @@
       <c r="W25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Nate Training</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -2685,8 +2685,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2740,7 +2739,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>

--- a/07-06-25 to 07-12-25 Madison Schedule.xlsx
+++ b/07-06-25 to 07-12-25 Madison Schedule.xlsx
@@ -2521,11 +2521,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 6:00 am at IL office  </t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2567,9 +2563,21 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2616,17 +2624,17 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2675,12 +2683,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2731,18 +2739,17 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2811,15 +2818,19 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2885,21 +2896,9 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
